--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD50B1C3-540C-4672-AA35-42613FD40168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DD50B1C3-540C-4672-AA35-42613FD40168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B186AB8-0DF0-40F2-BDC7-3CA3D549696A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -401,12 +401,6 @@
   </si>
   <si>
     <t>_24</t>
-  </si>
-  <si>
-    <t>_25</t>
-  </si>
-  <si>
-    <t>_26</t>
   </si>
   <si>
     <t>~Milestoneyears</t>
@@ -3286,10 +3280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:J30"/>
+  <dimension ref="B3:J28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3457,16 +3451,6 @@
     <row r="28" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J28" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J30" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3519,29 +3503,29 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C16" s="15">
         <v>2022</v>
@@ -3549,7 +3533,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>2025</v>
@@ -3557,7 +3541,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>2030</v>
@@ -3565,7 +3549,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <v>2035</v>
@@ -3573,7 +3557,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>2040</v>
@@ -3581,7 +3565,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21">
         <v>2045</v>
@@ -3589,7 +3573,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22">
         <v>2050</v>
@@ -3684,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA11A5-2377-4878-AD2C-E80254AFF82E}">
   <dimension ref="B3:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3727,10 +3711,10 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3741,10 +3725,10 @@
     </row>
     <row r="7" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C7" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>146</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>148</v>
       </c>
       <c r="E7" s="28">
         <v>0</v>
@@ -3756,10 +3740,10 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E8" s="29">
         <v>0</v>
@@ -3770,10 +3754,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C9" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E9" s="29">
         <v>0</v>
@@ -3784,10 +3768,10 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C10" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E10" s="29">
         <v>0</v>
@@ -3798,10 +3782,10 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C11" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E11" s="29">
         <v>0</v>
@@ -3832,7 +3816,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3846,7 +3830,7 @@
         <v>20</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>2</v>
@@ -4012,7 +3996,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>53</v>
@@ -4027,7 +4011,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>53</v>
@@ -4040,7 +4024,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>53</v>
@@ -4052,7 +4036,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>53</v>
@@ -4064,7 +4048,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C15"/>
       <c r="D15" s="11" t="s">
@@ -4078,7 +4062,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C16"/>
       <c r="D16" s="11" t="s">
@@ -4092,7 +4076,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="11" t="s">
@@ -4106,7 +4090,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18"/>
       <c r="D18" s="11" t="s">
@@ -4119,7 +4103,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="11" t="s">
@@ -4132,7 +4116,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C20"/>
       <c r="D20" s="11" t="s">
@@ -4145,7 +4129,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C21"/>
       <c r="D21" s="11" t="s">
@@ -4158,7 +4142,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C22"/>
       <c r="D22" s="11" t="s">
@@ -4171,7 +4155,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23"/>
       <c r="D23" s="11" t="s">
@@ -4184,7 +4168,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="11" t="s">
@@ -4197,7 +4181,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25"/>
       <c r="D25" s="11" t="s">
@@ -4210,7 +4194,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26"/>
       <c r="D26" s="11" t="s">
@@ -4223,7 +4207,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27"/>
       <c r="D27" s="11" t="s">
@@ -4236,7 +4220,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C28"/>
       <c r="D28" s="11" t="s">
@@ -4249,7 +4233,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C29"/>
       <c r="D29" s="11" t="s">
@@ -4262,7 +4246,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30"/>
       <c r="D30" s="11" t="s">
@@ -4275,7 +4259,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C31"/>
       <c r="D31" s="11" t="s">
@@ -4288,7 +4272,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C32"/>
       <c r="D32" s="11" t="s">
@@ -4301,7 +4285,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C33"/>
       <c r="D33" s="11" t="s">
@@ -4314,7 +4298,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C34"/>
       <c r="D34" s="11" t="s">
@@ -4327,7 +4311,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C35"/>
       <c r="D35" s="11" t="s">
@@ -4340,7 +4324,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36"/>
       <c r="D36" s="11" t="s">
@@ -4353,7 +4337,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>53</v>
@@ -4365,7 +4349,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>53</v>
@@ -4377,7 +4361,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>53</v>
@@ -4389,7 +4373,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>53</v>
@@ -4401,7 +4385,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>53</v>
@@ -4413,7 +4397,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>53</v>
@@ -4425,7 +4409,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>53</v>
@@ -4437,7 +4421,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>53</v>
@@ -4449,7 +4433,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>53</v>
@@ -4461,7 +4445,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>53</v>
@@ -4473,7 +4457,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>53</v>
@@ -4485,7 +4469,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>53</v>
@@ -4497,7 +4481,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>53</v>
@@ -4509,7 +4493,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>53</v>
@@ -4521,7 +4505,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>53</v>
@@ -4533,7 +4517,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>53</v>
@@ -4545,7 +4529,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>53</v>
@@ -4557,7 +4541,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>53</v>
@@ -4569,7 +4553,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>53</v>
@@ -4581,7 +4565,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>53</v>
@@ -4593,7 +4577,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>53</v>
@@ -4605,7 +4589,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>53</v>
@@ -4668,7 +4652,7 @@
         <v>49</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -4676,7 +4660,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -4684,7 +4668,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DD50B1C3-540C-4672-AA35-42613FD40168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B186AB8-0DF0-40F2-BDC7-3CA3D549696A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{DD50B1C3-540C-4672-AA35-42613FD40168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB762DB7-A778-4930-B1DF-4E40DBBD603E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="149">
   <si>
     <t>IMP*Z</t>
   </si>
@@ -325,9 +325,6 @@
     <t>W</t>
   </si>
   <si>
-    <t>TH$2022</t>
-  </si>
-  <si>
     <t>* Wet Season (W(June 08 to September 05</t>
   </si>
   <si>
@@ -571,12 +568,6 @@
     <t>ACT_BND</t>
   </si>
   <si>
-    <t>Share-O</t>
-  </si>
-  <si>
-    <t>Share-I</t>
-  </si>
-  <si>
     <t>msy09/2050</t>
   </si>
   <si>
@@ -586,13 +577,7 @@
     <t>~TFM_UPD</t>
   </si>
   <si>
-    <t>NCAP_BND</t>
-  </si>
-  <si>
-    <t>UP,LO</t>
-  </si>
-  <si>
-    <t>FX</t>
+    <t>TH$2024</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1353,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>the start year of the model (2005);</a:t>
+            <a:t>the start year of the model (2022);</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2991,6 +2976,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3282,7 +3271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
@@ -3332,7 +3321,7 @@
         <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
@@ -3340,117 +3329,117 @@
         <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="J16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3468,7 +3457,7 @@
   <dimension ref="B3:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3503,29 +3492,29 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="15">
         <v>2022</v>
@@ -3533,7 +3522,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17">
         <v>2025</v>
@@ -3541,7 +3530,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>2030</v>
@@ -3549,7 +3538,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>2035</v>
@@ -3557,7 +3546,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20">
         <v>2040</v>
@@ -3565,7 +3554,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21">
         <v>2045</v>
@@ -3573,7 +3562,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22">
         <v>2050</v>
@@ -3669,7 +3658,7 @@
   <dimension ref="B3:Q39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3711,10 +3700,10 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
         <v>144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3724,75 +3713,35 @@
       </c>
     </row>
     <row r="7" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="28">
-        <v>0</v>
-      </c>
-      <c r="F7" s="28">
-        <v>15</v>
-      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="26"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" s="29">
-        <v>0</v>
-      </c>
-      <c r="F8" s="29">
-        <v>15</v>
-      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="E9" s="29">
-        <v>0</v>
-      </c>
-      <c r="F9" s="29">
-        <v>1</v>
-      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="29">
-        <v>0</v>
-      </c>
-      <c r="F10" s="29">
-        <v>15</v>
-      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C11" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0</v>
-      </c>
-      <c r="F11" s="29">
-        <v>15</v>
-      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C12" s="29"/>
@@ -3816,7 +3765,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3830,7 +3779,7 @@
         <v>20</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>2</v>
@@ -3909,7 +3858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -3996,7 +3945,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>53</v>
@@ -4006,12 +3955,12 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>53</v>
@@ -4024,7 +3973,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>53</v>
@@ -4036,7 +3985,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>53</v>
@@ -4048,7 +3997,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15"/>
       <c r="D15" s="11" t="s">
@@ -4062,7 +4011,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16"/>
       <c r="D16" s="11" t="s">
@@ -4076,7 +4025,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="11" t="s">
@@ -4090,7 +4039,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18"/>
       <c r="D18" s="11" t="s">
@@ -4103,7 +4052,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19"/>
       <c r="D19" s="11" t="s">
@@ -4116,7 +4065,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20"/>
       <c r="D20" s="11" t="s">
@@ -4129,7 +4078,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21"/>
       <c r="D21" s="11" t="s">
@@ -4142,7 +4091,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C22"/>
       <c r="D22" s="11" t="s">
@@ -4155,7 +4104,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23"/>
       <c r="D23" s="11" t="s">
@@ -4168,7 +4117,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24"/>
       <c r="D24" s="11" t="s">
@@ -4181,7 +4130,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25"/>
       <c r="D25" s="11" t="s">
@@ -4194,7 +4143,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26"/>
       <c r="D26" s="11" t="s">
@@ -4207,7 +4156,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27"/>
       <c r="D27" s="11" t="s">
@@ -4220,7 +4169,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28"/>
       <c r="D28" s="11" t="s">
@@ -4233,7 +4182,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29"/>
       <c r="D29" s="11" t="s">
@@ -4246,7 +4195,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30"/>
       <c r="D30" s="11" t="s">
@@ -4259,7 +4208,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31"/>
       <c r="D31" s="11" t="s">
@@ -4272,7 +4221,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32"/>
       <c r="D32" s="11" t="s">
@@ -4285,7 +4234,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33"/>
       <c r="D33" s="11" t="s">
@@ -4298,7 +4247,7 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34"/>
       <c r="D34" s="11" t="s">
@@ -4311,7 +4260,7 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35"/>
       <c r="D35" s="11" t="s">
@@ -4324,7 +4273,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36"/>
       <c r="D36" s="11" t="s">
@@ -4337,7 +4286,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>53</v>
@@ -4349,7 +4298,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>53</v>
@@ -4361,7 +4310,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>53</v>
@@ -4373,7 +4322,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>53</v>
@@ -4385,7 +4334,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>53</v>
@@ -4397,7 +4346,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>53</v>
@@ -4409,7 +4358,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>53</v>
@@ -4421,7 +4370,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>53</v>
@@ -4433,7 +4382,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>53</v>
@@ -4445,7 +4394,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>53</v>
@@ -4457,7 +4406,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>53</v>
@@ -4469,7 +4418,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>53</v>
@@ -4481,7 +4430,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>53</v>
@@ -4493,7 +4442,7 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>53</v>
@@ -4505,7 +4454,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>53</v>
@@ -4517,7 +4466,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>53</v>
@@ -4529,7 +4478,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>53</v>
@@ -4541,7 +4490,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>53</v>
@@ -4553,7 +4502,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>53</v>
@@ -4565,7 +4514,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>53</v>
@@ -4577,7 +4526,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>53</v>
@@ -4589,7 +4538,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>53</v>
@@ -4615,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4646,13 +4595,13 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -4660,7 +4609,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -4668,7 +4617,7 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4682,7 +4631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{DD50B1C3-540C-4672-AA35-42613FD40168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB762DB7-A778-4930-B1DF-4E40DBBD603E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8577689-7C8C-49F4-A06B-BC4F23422592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="853" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="853" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -2978,10 +2978,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3275,15 +3271,15 @@
       <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3293,7 +3289,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
@@ -3310,7 +3306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
         <v>58</v>
       </c>
@@ -3324,7 +3320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>62</v>
       </c>
@@ -3332,112 +3328,112 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J22" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>88</v>
       </c>
@@ -3460,43 +3456,43 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>89</v>
       </c>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>90</v>
       </c>
@@ -3505,14 +3501,14 @@
       </c>
       <c r="D14" s="24"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="24"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>91</v>
       </c>
@@ -3520,7 +3516,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>91</v>
       </c>
@@ -3528,7 +3524,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>91</v>
       </c>
@@ -3536,7 +3532,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>91</v>
       </c>
@@ -3544,7 +3540,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>91</v>
       </c>
@@ -3552,7 +3548,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>91</v>
       </c>
@@ -3560,7 +3556,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>91</v>
       </c>
@@ -3585,18 +3581,18 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>30</v>
       </c>
@@ -3604,7 +3600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>32</v>
       </c>
@@ -3612,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>33</v>
       </c>
@@ -3620,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
@@ -3628,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
@@ -3636,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>57</v>
       </c>
@@ -3657,27 +3653,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AA11A5-2377-4878-AD2C-E80254AFF82E}">
   <dimension ref="B3:Q39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -3698,7 +3694,7 @@
       </c>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>143</v>
       </c>
@@ -3712,63 +3708,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
     </row>
-    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="2:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:17" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="2:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>18</v>
       </c>
@@ -3818,12 +3814,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>3</v>
       </c>
       <c r="G38">
-        <v>2222</v>
+        <v>9999999</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -3832,12 +3828,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>3</v>
       </c>
       <c r="G39">
-        <v>8888</v>
+        <v>9999999</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
@@ -3858,33 +3854,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="11"/>
-    <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="11"/>
+    <col min="2" max="2" width="12.109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="11" customWidth="1"/>
     <col min="4" max="4" width="14" style="11" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="11"/>
+    <col min="5" max="5" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -3904,7 +3900,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D7" s="11" t="s">
         <v>54</v>
       </c>
@@ -3912,7 +3908,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D8" s="11" t="s">
         <v>44</v>
       </c>
@@ -3920,7 +3916,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>62</v>
       </c>
@@ -3931,7 +3927,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>63</v>
       </c>
@@ -3943,7 +3939,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>93</v>
       </c>
@@ -3958,7 +3954,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>94</v>
       </c>
@@ -3971,7 +3967,7 @@
       </c>
       <c r="F12" s="17"/>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>95</v>
       </c>
@@ -3983,7 +3979,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>96</v>
       </c>
@@ -3995,7 +3991,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>97</v>
       </c>
@@ -4009,7 +4005,7 @@
       </c>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>98</v>
       </c>
@@ -4023,7 +4019,7 @@
       </c>
       <c r="F16" s="17"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>99</v>
       </c>
@@ -4037,7 +4033,7 @@
       </c>
       <c r="F17" s="17"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>100</v>
       </c>
@@ -4050,7 +4046,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>101</v>
       </c>
@@ -4063,7 +4059,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>102</v>
       </c>
@@ -4076,7 +4072,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>103</v>
       </c>
@@ -4089,7 +4085,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>104</v>
       </c>
@@ -4102,7 +4098,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>105</v>
       </c>
@@ -4115,7 +4111,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>106</v>
       </c>
@@ -4128,7 +4124,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>107</v>
       </c>
@@ -4141,7 +4137,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>108</v>
       </c>
@@ -4154,7 +4150,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>109</v>
       </c>
@@ -4167,7 +4163,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>110</v>
       </c>
@@ -4180,7 +4176,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>111</v>
       </c>
@@ -4193,7 +4189,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>112</v>
       </c>
@@ -4206,7 +4202,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>113</v>
       </c>
@@ -4219,7 +4215,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>114</v>
       </c>
@@ -4232,7 +4228,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>115</v>
       </c>
@@ -4245,7 +4241,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
         <v>116</v>
       </c>
@@ -4258,7 +4254,7 @@
         <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>117</v>
       </c>
@@ -4271,7 +4267,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>118</v>
       </c>
@@ -4284,7 +4280,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>119</v>
       </c>
@@ -4296,7 +4292,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>120</v>
       </c>
@@ -4308,7 +4304,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>121</v>
       </c>
@@ -4320,7 +4316,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>122</v>
       </c>
@@ -4332,7 +4328,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>123</v>
       </c>
@@ -4344,7 +4340,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
         <v>124</v>
       </c>
@@ -4356,7 +4352,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
         <v>125</v>
       </c>
@@ -4368,7 +4364,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>126</v>
       </c>
@@ -4380,7 +4376,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
         <v>127</v>
       </c>
@@ -4392,7 +4388,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
         <v>128</v>
       </c>
@@ -4404,7 +4400,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>129</v>
       </c>
@@ -4416,7 +4412,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>130</v>
       </c>
@@ -4428,7 +4424,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
         <v>131</v>
       </c>
@@ -4440,7 +4436,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>132</v>
       </c>
@@ -4452,7 +4448,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
         <v>133</v>
       </c>
@@ -4464,7 +4460,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>134</v>
       </c>
@@ -4476,7 +4472,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
         <v>135</v>
       </c>
@@ -4488,7 +4484,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
         <v>136</v>
       </c>
@@ -4500,7 +4496,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>137</v>
       </c>
@@ -4512,7 +4508,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
         <v>138</v>
       </c>
@@ -4524,7 +4520,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>139</v>
       </c>
@@ -4536,7 +4532,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
         <v>140</v>
       </c>
@@ -4548,7 +4544,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E59" s="17"/>
     </row>
   </sheetData>
@@ -4564,17 +4560,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
@@ -4582,7 +4578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>47</v>
       </c>
@@ -4593,7 +4589,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>148</v>
       </c>
@@ -4604,7 +4600,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>50</v>
       </c>
@@ -4612,7 +4608,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>51</v>
       </c>
@@ -4631,22 +4627,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="10" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="10" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
@@ -4657,7 +4653,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="4" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -4666,12 +4662,12 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -4694,7 +4690,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
